--- a/data/trans_orig/P53-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P53-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8245</v>
+        <v>9330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03659229412549711</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01171437281961917</v>
+        <v>0.01166865582204336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09884010976787933</v>
+        <v>0.1118424760823267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5886</v>
+        <v>5854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02888581908758041</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09883970100639886</v>
+        <v>0.09830283279298033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>4773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1834</v>
+        <v>1798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10774</v>
+        <v>10770</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03338250302656755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01282845277048635</v>
+        <v>0.01257930855460597</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07535808970276228</v>
+        <v>0.07533228439685642</v>
       </c>
     </row>
     <row r="5">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4445</v>
+        <v>5073</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01222471262704588</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05327886992428708</v>
+        <v>0.06081250258939568</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4832</v>
+        <v>4721</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01600826921392366</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0811494742828705</v>
+        <v>0.07927534325776985</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6757</v>
+        <v>6969</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01380058566823588</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04726322448280059</v>
+        <v>0.04874906524491364</v>
       </c>
     </row>
     <row r="7">
@@ -932,19 +932,19 @@
         <v>5768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2062</v>
+        <v>1944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11869</v>
+        <v>11602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06914671762193823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02471473971206149</v>
+        <v>0.02330706710317887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1422748065673967</v>
+        <v>0.1390834350294225</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -966,19 +966,19 @@
         <v>5768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1935</v>
+        <v>1901</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11440</v>
+        <v>11481</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04034671273629438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01353623911695617</v>
+        <v>0.01329718135820416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08002143381572996</v>
+        <v>0.08030699042401652</v>
       </c>
     </row>
     <row r="8">
@@ -995,19 +995,19 @@
         <v>73579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65627</v>
+        <v>66226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78388</v>
+        <v>78399</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8820362756255188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.78670486419076</v>
+        <v>0.7938866837598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9396811362646577</v>
+        <v>0.939810012719431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1016,19 +1016,19 @@
         <v>56873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52251</v>
+        <v>52731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>58788</v>
+        <v>58791</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9551059116984959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8774975285768543</v>
+        <v>0.8855499658875711</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9872780365582586</v>
+        <v>0.987313963823056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>128</v>
@@ -1037,19 +1037,19 @@
         <v>130452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>123348</v>
+        <v>121864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135558</v>
+        <v>135911</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9124701985689022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8627764678040889</v>
+        <v>0.85240110268067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9481803847182262</v>
+        <v>0.9506500381190238</v>
       </c>
     </row>
     <row r="9">
@@ -1141,19 +1141,19 @@
         <v>7115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3027</v>
+        <v>3018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13589</v>
+        <v>14054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05929239365673775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02522513689683911</v>
+        <v>0.0251523269631161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.11325048155752</v>
+        <v>0.1171235289946955</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>7115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2972</v>
+        <v>3042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13332</v>
+        <v>14323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02943205347006966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01229298152750994</v>
+        <v>0.01258298728700227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05515002092241791</v>
+        <v>0.05925146348185337</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5013</v>
+        <v>4633</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008273305182978575</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04177361257668421</v>
+        <v>0.03861199737821044</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5262</v>
+        <v>7713</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01055715342041393</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04322365081326699</v>
+        <v>0.06335330397905389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7571</v>
+        <v>8009</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00942347776159554</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03131912409814269</v>
+        <v>0.03313002245138322</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6870</v>
+        <v>6096</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01668478991933454</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05725427640134083</v>
+        <v>0.05080087098906207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6196</v>
+        <v>6946</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008282135342446753</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02562975637285066</v>
+        <v>0.02873386364187564</v>
       </c>
     </row>
     <row r="13">
@@ -1338,19 +1338,19 @@
         <v>3382</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9363</v>
+        <v>8941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02818384657226424</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009073307906756284</v>
+        <v>0.009040846829029442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07802700167831805</v>
+        <v>0.07451088357372522</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8181</v>
+        <v>7207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0195064236060417</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06719731195146003</v>
+        <v>0.05919999856232387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1380,19 +1380,19 @@
         <v>5757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2231</v>
+        <v>2285</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12603</v>
+        <v>12958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02381379527672901</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009231101534838712</v>
+        <v>0.009451731889195836</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05213713163116215</v>
+        <v>0.0536045898886922</v>
       </c>
     </row>
     <row r="14">
@@ -1409,19 +1409,19 @@
         <v>106503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98569</v>
+        <v>97230</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112559</v>
+        <v>111967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8875656646686849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8214388155903858</v>
+        <v>0.810281777158644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9380346185488897</v>
+        <v>0.9330956032912775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -1430,19 +1430,19 @@
         <v>118081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112182</v>
+        <v>112272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>120601</v>
+        <v>120588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9699364229735443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9214769466766786</v>
+        <v>0.9222220908847572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9906353939148416</v>
+        <v>0.9905302677443848</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>204</v>
@@ -1451,19 +1451,19 @@
         <v>224584</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215140</v>
+        <v>214863</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231330</v>
+        <v>231825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.929048538149159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8899821524542781</v>
+        <v>0.8888382258574836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9569588982114471</v>
+        <v>0.9590046936476901</v>
       </c>
     </row>
     <row r="15">
@@ -1555,19 +1555,19 @@
         <v>3781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8513</v>
+        <v>9276</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03619741960591388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009155369463951204</v>
+        <v>0.009045556243826202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08149593242914339</v>
+        <v>0.08880068092224579</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5189</v>
+        <v>5035</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01069092168696073</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0546823612486783</v>
+        <v>0.05305890201267807</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1597,19 +1597,19 @@
         <v>4796</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1886</v>
+        <v>1832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10976</v>
+        <v>10456</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02405534541704079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009461392210161181</v>
+        <v>0.009189858268897967</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05505885201070814</v>
+        <v>0.05245187748488307</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5188</v>
+        <v>5007</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01074050338301208</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05466477741999719</v>
+        <v>0.05276590658841607</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5217</v>
+        <v>5894</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005112892774098541</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02617195970954739</v>
+        <v>0.02956569246116518</v>
       </c>
     </row>
     <row r="19">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7470</v>
+        <v>6175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01653450245456518</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07151573542456648</v>
+        <v>0.05911913552749342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6122</v>
+        <v>5516</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01875281079327587</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06451414400393528</v>
+        <v>0.05812574126997324</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1778,19 +1778,19 @@
         <v>3507</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>899</v>
+        <v>938</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8130</v>
+        <v>8610</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01759050255728436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004509167316255744</v>
+        <v>0.004704337367539834</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04078204876596038</v>
+        <v>0.04318963730709265</v>
       </c>
     </row>
     <row r="20">
@@ -1807,19 +1807,19 @@
         <v>98946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93499</v>
+        <v>93286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102547</v>
+        <v>102565</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9472680779395209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8951256264621112</v>
+        <v>0.8930778701565166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9817433560998197</v>
+        <v>0.9819140648623802</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -1828,19 +1828,19 @@
         <v>91087</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86480</v>
+        <v>85810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>93917</v>
+        <v>93893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9598157641367513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9112729784833676</v>
+        <v>0.9042164409810258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9896395515118748</v>
+        <v>0.9893911852775887</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>183</v>
@@ -1849,19 +1849,19 @@
         <v>190032</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>182856</v>
+        <v>183265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>194594</v>
+        <v>194752</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9532412592515763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9172424404149699</v>
+        <v>0.9192926151644215</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9761247163375496</v>
+        <v>0.9769155551354186</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>4293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1586</v>
+        <v>914</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9840</v>
+        <v>11318</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03578547378858563</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01322038829802439</v>
+        <v>0.007618882660450425</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08202637511826721</v>
+        <v>0.09434409924023922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5263</v>
+        <v>5171</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008950633059141851</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04582497389534013</v>
+        <v>0.04502907902207998</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -1995,19 +1995,19 @@
         <v>5321</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11929</v>
+        <v>11996</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02266051086922459</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007701282796191072</v>
+        <v>0.007773343510625068</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05080348523801896</v>
+        <v>0.05108893956868363</v>
       </c>
     </row>
     <row r="23">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4251</v>
+        <v>4518</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007577840858105837</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03543813040851346</v>
+        <v>0.0376575816467428</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4303</v>
+        <v>4586</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003871506944138175</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01832587895954592</v>
+        <v>0.01952932981626074</v>
       </c>
     </row>
     <row r="24">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6315</v>
+        <v>6365</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01492936477678369</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05263712809252418</v>
+        <v>0.05306080841055588</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5630</v>
+        <v>5076</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008860975596163593</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04902057695782108</v>
+        <v>0.04419789969894892</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2129,19 +2129,19 @@
         <v>2809</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7896</v>
+        <v>8652</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0119613060586822</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003738417380825723</v>
+        <v>0.003765286435482607</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03362780066206024</v>
+        <v>0.03684519799834748</v>
       </c>
     </row>
     <row r="25">
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8435</v>
+        <v>7380</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01900668145717054</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07031276867193527</v>
+        <v>0.06151413017487555</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6714</v>
+        <v>6547</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01666707870003257</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05846161699015172</v>
+        <v>0.05700416346324073</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2200,19 +2200,19 @@
         <v>4194</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1010</v>
+        <v>980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11222</v>
+        <v>10652</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01786237805909678</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0043033837033524</v>
+        <v>0.004174262925156246</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04779131134692599</v>
+        <v>0.04536227035884557</v>
       </c>
     </row>
     <row r="26">
@@ -2229,19 +2229,19 @@
         <v>110693</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103921</v>
+        <v>102892</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115539</v>
+        <v>115687</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9227006391193543</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8662558068628606</v>
+        <v>0.8576723762499647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9630975569074898</v>
+        <v>0.9643339974097683</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -2250,19 +2250,19 @@
         <v>110888</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>104957</v>
+        <v>104823</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>113829</v>
+        <v>113827</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.965521312644662</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9138799860011939</v>
+        <v>0.912709166291654</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.991127256209746</v>
+        <v>0.9911100658408323</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>221</v>
@@ -2271,19 +2271,19 @@
         <v>221580</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>212841</v>
+        <v>213074</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>227533</v>
+        <v>227663</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9436442980688583</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.906425622333506</v>
+        <v>0.9074204130066306</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9689948282675633</v>
+        <v>0.969548906212642</v>
       </c>
     </row>
     <row r="27">
@@ -2375,19 +2375,19 @@
         <v>18241</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10807</v>
+        <v>10944</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28791</v>
+        <v>28383</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04263634958417344</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02526069039352937</v>
+        <v>0.02557923136816263</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06729423100999141</v>
+        <v>0.06634166429514061</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2396,19 +2396,19 @@
         <v>3763</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9340</v>
+        <v>9355</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009622083475346505</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00245621816601647</v>
+        <v>0.002564898452185522</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02388568651877737</v>
+        <v>0.02392415679161994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2417,19 +2417,19 @@
         <v>22004</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14391</v>
+        <v>13794</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32192</v>
+        <v>32306</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02687103572494355</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01757402682049274</v>
+        <v>0.01684525971861275</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03931233751170835</v>
+        <v>0.03945248900228519</v>
       </c>
     </row>
     <row r="29">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6527</v>
+        <v>6485</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004445257510648113</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01525644763463351</v>
+        <v>0.01515869927901302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6465</v>
+        <v>7200</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003286756448569371</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01653215873805865</v>
+        <v>0.01841190937716718</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2488,19 +2488,19 @@
         <v>3187</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8500</v>
+        <v>8257</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003892038099690518</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001111742739492658</v>
+        <v>0.001109908778836072</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01038014694765667</v>
+        <v>0.01008284666779719</v>
       </c>
     </row>
     <row r="30">
@@ -2517,19 +2517,19 @@
         <v>4813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1819</v>
+        <v>1889</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11390</v>
+        <v>10354</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01124940519024679</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004250748284455069</v>
+        <v>0.004414756723725605</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02662260305944241</v>
+        <v>0.02420168198313975</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2538,19 +2538,19 @@
         <v>2990</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7910</v>
+        <v>7778</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007646811451527528</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00241162860233525</v>
+        <v>0.002428629393244282</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02022953677498817</v>
+        <v>0.01989199192686622</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -2559,19 +2559,19 @@
         <v>7803</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3826</v>
+        <v>3866</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15377</v>
+        <v>15991</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00952905736209924</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004671808903663253</v>
+        <v>0.004721253113283992</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01877864651875359</v>
+        <v>0.01952779803662145</v>
       </c>
     </row>
     <row r="31">
@@ -2588,19 +2588,19 @@
         <v>13157</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7429</v>
+        <v>7331</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21909</v>
+        <v>22538</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03075341540850364</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01736390157547432</v>
+        <v>0.01713517969702561</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05120866548473287</v>
+        <v>0.05267875915594014</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2609,19 +2609,19 @@
         <v>6069</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2234</v>
+        <v>2160</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11546</v>
+        <v>12952</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01551920262511947</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.005712039391723565</v>
+        <v>0.005524766305768996</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02952759829169764</v>
+        <v>0.03312314189413363</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -2630,19 +2630,19 @@
         <v>19226</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11526</v>
+        <v>11991</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29892</v>
+        <v>29101</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02347861653408222</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01407572371918719</v>
+        <v>0.01464336585594733</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03650461006676435</v>
+        <v>0.0355384284875187</v>
       </c>
     </row>
     <row r="32">
@@ -2659,19 +2659,19 @@
         <v>389721</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>376101</v>
+        <v>377527</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>399247</v>
+        <v>400399</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9109155723064281</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8790814389320516</v>
+        <v>0.8824142225818374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9331830465911334</v>
+        <v>0.9358754007330842</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>364</v>
@@ -2680,19 +2680,19 @@
         <v>376928</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>368454</v>
+        <v>367354</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>383074</v>
+        <v>383162</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9639251459994371</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9422542533286067</v>
+        <v>0.9394391592206399</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9796410177525361</v>
+        <v>0.9798663696971841</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>736</v>
@@ -2701,19 +2701,19 @@
         <v>766649</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>751194</v>
+        <v>750751</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>778651</v>
+        <v>779012</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9362292522791845</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9173556518273327</v>
+        <v>0.9168150397266499</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9508859577311636</v>
+        <v>0.9513269449957021</v>
       </c>
     </row>
     <row r="33">
@@ -3045,19 +3045,19 @@
         <v>7319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3014</v>
+        <v>3144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13884</v>
+        <v>13945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02928479583163968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01205905094218428</v>
+        <v>0.01258042318420039</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05555464309045919</v>
+        <v>0.05579910039772176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3066,19 +3066,19 @@
         <v>9340</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4287</v>
+        <v>5012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17249</v>
+        <v>17838</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04754450636901612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02182210233209978</v>
+        <v>0.02551433044552969</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08780772920248457</v>
+        <v>0.09080563783401016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3087,19 +3087,19 @@
         <v>16658</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10295</v>
+        <v>10137</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26344</v>
+        <v>26001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03732084274057053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02306546522759026</v>
+        <v>0.02271112146278895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05902028069330603</v>
+        <v>0.05825276808844487</v>
       </c>
     </row>
     <row r="5">
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5110</v>
+        <v>5538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004015167617758454</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02044852158327798</v>
+        <v>0.02215952542369691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6050</v>
+        <v>5457</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002248103717294068</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01355380323345962</v>
+        <v>0.01222526771496411</v>
       </c>
     </row>
     <row r="6">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7069</v>
+        <v>5951</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007377175208102786</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02828614861888928</v>
+        <v>0.02381044653521022</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6144</v>
+        <v>5120</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005117251672429018</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03127952983243837</v>
+        <v>0.02606420483412786</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -3221,19 +3221,19 @@
         <v>2849</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7803</v>
+        <v>8339</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006382589258555713</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001643493775184184</v>
+        <v>0.001664617923797192</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01748181390631985</v>
+        <v>0.01868267839599105</v>
       </c>
     </row>
     <row r="7">
@@ -3297,19 +3297,19 @@
         <v>239748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>232515</v>
+        <v>232898</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>245232</v>
+        <v>245528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9593228613424991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9303807385244524</v>
+        <v>0.9319141582780633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9812674092908867</v>
+        <v>0.9824513193852902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -3318,19 +3318,19 @@
         <v>186093</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178455</v>
+        <v>178025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>191248</v>
+        <v>191196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9473382419585549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.908453338685824</v>
+        <v>0.9062669310284994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9735804574943133</v>
+        <v>0.9733151804085232</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>402</v>
@@ -3339,19 +3339,19 @@
         <v>425841</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>416305</v>
+        <v>416627</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>432919</v>
+        <v>433179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9540484642835797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9326836667284605</v>
+        <v>0.9334040149791498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.969905357800126</v>
+        <v>0.9704881308592909</v>
       </c>
     </row>
     <row r="9">
@@ -3443,19 +3443,19 @@
         <v>20699</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13219</v>
+        <v>12484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33271</v>
+        <v>34019</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05439199036184568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03473488211149048</v>
+        <v>0.03280450644538642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08742713533508599</v>
+        <v>0.08939301842278048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3464,19 +3464,19 @@
         <v>18722</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11150</v>
+        <v>10954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29988</v>
+        <v>28966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05625913610677875</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03350544415430933</v>
+        <v>0.03291483262286467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09011325005294539</v>
+        <v>0.0870410296898239</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3485,19 +3485,19 @@
         <v>39422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28318</v>
+        <v>28106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53538</v>
+        <v>54874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05526304150745524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03969691282724536</v>
+        <v>0.03940037541022719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07505237035417248</v>
+        <v>0.07692493468439388</v>
       </c>
     </row>
     <row r="11">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5797</v>
+        <v>5702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00297324724767158</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01523381693931968</v>
+        <v>0.01498323980951024</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6417</v>
+        <v>6219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001586183367793453</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008996299736066566</v>
+        <v>0.008717756343221092</v>
       </c>
     </row>
     <row r="12">
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4705</v>
+        <v>4848</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002519551909241798</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01236345339830662</v>
+        <v>0.01273883104887378</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8409</v>
+        <v>8738</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00728748863360329</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02526717467512161</v>
+        <v>0.02625741171009734</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -3619,19 +3619,19 @@
         <v>3384</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9144</v>
+        <v>9418</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004743865012393713</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00134429168645616</v>
+        <v>0.001339827113535039</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0128188489851833</v>
+        <v>0.01320211235977088</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>5381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2108</v>
+        <v>1775</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11822</v>
+        <v>11675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01413841334195759</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005538752369229857</v>
+        <v>0.004664266022684851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03106358941840127</v>
+        <v>0.03067852481471179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4933</v>
+        <v>4629</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002940180730708951</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01482268650930729</v>
+        <v>0.01390947380052836</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3690,19 +3690,19 @@
         <v>6359</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2255</v>
+        <v>2145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13806</v>
+        <v>12871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008914271963974206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003161439700178252</v>
+        <v>0.003007284010959847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0193542261588022</v>
+        <v>0.01804301594926137</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>352389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339649</v>
+        <v>338447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361557</v>
+        <v>362153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9259767971392834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8925012387367769</v>
+        <v>0.8893420129825829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9500686618494173</v>
+        <v>0.951634637518078</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>281</v>
@@ -3740,19 +3740,19 @@
         <v>310660</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>299447</v>
+        <v>299995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319136</v>
+        <v>319674</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.933513194528909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8998196849175292</v>
+        <v>0.9014638005917743</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9589831193879997</v>
+        <v>0.9606007980585195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>609</v>
@@ -3761,19 +3761,19 @@
         <v>663048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>647013</v>
+        <v>646922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>676467</v>
+        <v>675900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9294926381483833</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9070138811055175</v>
+        <v>0.9068861559184096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.948304014649167</v>
+        <v>0.9475094051191189</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>13267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7206</v>
+        <v>7516</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21941</v>
+        <v>22364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05110888007203045</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02775785416537461</v>
+        <v>0.02895298425933762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08452086303478328</v>
+        <v>0.08615113870916673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3886,19 +3886,19 @@
         <v>13544</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7698</v>
+        <v>7141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23758</v>
+        <v>23371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06179278367264043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03512016330968702</v>
+        <v>0.03258283780125187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1083965855907217</v>
+        <v>0.1066312417805481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -3907,19 +3907,19 @@
         <v>26811</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17487</v>
+        <v>18128</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38534</v>
+        <v>38223</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05599994265258117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0365249362813126</v>
+        <v>0.03786479072301525</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08048670439901522</v>
+        <v>0.07983728426000206</v>
       </c>
     </row>
     <row r="17">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7008</v>
+        <v>5896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005370203570977807</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03197292055939675</v>
+        <v>0.0269022109695235</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5337</v>
+        <v>7032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.002458464875558198</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01114698293025384</v>
+        <v>0.01468715679891587</v>
       </c>
     </row>
     <row r="18">
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4903</v>
+        <v>6671</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005367652761513386</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02237209228474357</v>
+        <v>0.0304373476500208</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5920</v>
+        <v>6761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002457297121786924</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01236582376636548</v>
+        <v>0.01412228828693685</v>
       </c>
     </row>
     <row r="19">
@@ -4062,19 +4062,19 @@
         <v>6342</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2122</v>
+        <v>2075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15284</v>
+        <v>14131</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02443201762619944</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008175878565128783</v>
+        <v>0.007991950995510519</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05887680119050032</v>
+        <v>0.05443578913654836</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7927</v>
+        <v>7951</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01021265079016512</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03616565518986108</v>
+        <v>0.0362768214150213</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -4104,19 +4104,19 @@
         <v>8581</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3334</v>
+        <v>4108</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17036</v>
+        <v>18705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01792242940351269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006963702522091628</v>
+        <v>0.008580687825424982</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03558246491764994</v>
+        <v>0.0390696326143716</v>
       </c>
     </row>
     <row r="20">
@@ -4133,19 +4133,19 @@
         <v>239979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230275</v>
+        <v>229633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247617</v>
+        <v>247213</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9244591023017701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8870755603166973</v>
+        <v>0.8846010864784585</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.95388221428603</v>
+        <v>0.9523246293676618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>183</v>
@@ -4154,19 +4154,19 @@
         <v>201042</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>190538</v>
+        <v>190457</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208122</v>
+        <v>208503</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9172567092047033</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8693313442353927</v>
+        <v>0.8689582734419036</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9495576825442932</v>
+        <v>0.9512932649813558</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>404</v>
@@ -4175,19 +4175,19 @@
         <v>441022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>427478</v>
+        <v>427298</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>451822</v>
+        <v>451917</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.921161865946561</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8928719406708387</v>
+        <v>0.892497470357617</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9437207525912428</v>
+        <v>0.9439174255460467</v>
       </c>
     </row>
     <row r="21">
@@ -4279,19 +4279,19 @@
         <v>39072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28197</v>
+        <v>28737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53516</v>
+        <v>52857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1161427943220381</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0838166772497483</v>
+        <v>0.0854232218755807</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1590795830806662</v>
+        <v>0.1571213743180866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -4300,19 +4300,19 @@
         <v>36925</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26594</v>
+        <v>27220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49274</v>
+        <v>50479</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1214861597375496</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08749908475350848</v>
+        <v>0.08955755964265365</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1621159426327929</v>
+        <v>0.1660830113656332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -4321,19 +4321,19 @@
         <v>75996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59166</v>
+        <v>61660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94636</v>
+        <v>95207</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1186790007310062</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09239680737019848</v>
+        <v>0.09629017317468487</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.147786843748301</v>
+        <v>0.1486796558784325</v>
       </c>
     </row>
     <row r="23">
@@ -4350,19 +4350,19 @@
         <v>3951</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9163</v>
+        <v>9247</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01174596573283492</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00301005716073409</v>
+        <v>0.0029340719259989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02723847157072163</v>
+        <v>0.02748854242275446</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -4371,19 +4371,19 @@
         <v>5258</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1935</v>
+        <v>2060</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12068</v>
+        <v>12385</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01729882329608316</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006365997625545424</v>
+        <v>0.006777446649979532</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03970676993674766</v>
+        <v>0.04074844901239542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -4392,19 +4392,19 @@
         <v>9209</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4182</v>
+        <v>4215</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16480</v>
+        <v>17014</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01438160672776188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006531467235751468</v>
+        <v>0.006582401644479801</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02573637209191998</v>
+        <v>0.02656977389132874</v>
       </c>
     </row>
     <row r="24">
@@ -4421,19 +4421,19 @@
         <v>3712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8475</v>
+        <v>9292</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0110340746722827</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002738776210827612</v>
+        <v>0.002834701506568832</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02519167866994741</v>
+        <v>0.02762062122485503</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6456</v>
+        <v>6928</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003819285092174174</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02124233142319436</v>
+        <v>0.02279518494017163</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -4463,19 +4463,19 @@
         <v>4873</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10876</v>
+        <v>10891</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007609604483643039</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002870699899141019</v>
+        <v>0.002865551572597776</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01698472560272488</v>
+        <v>0.01700765984325176</v>
       </c>
     </row>
     <row r="25">
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11894</v>
+        <v>10631</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009434526520310847</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0353550686532827</v>
+        <v>0.03159976749532008</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -4513,19 +4513,19 @@
         <v>3855</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9534</v>
+        <v>8964</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01268387626728939</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003174915245569563</v>
+        <v>0.003143901988146388</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03136843070762015</v>
+        <v>0.02949287183606555</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -4534,19 +4534,19 @@
         <v>7029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2879</v>
+        <v>2768</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16443</v>
+        <v>15410</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01097681700812636</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004496215274509943</v>
+        <v>0.004322329643784463</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02567874944847022</v>
+        <v>0.0240643280692625</v>
       </c>
     </row>
     <row r="26">
@@ -4563,19 +4563,19 @@
         <v>286502</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>271831</v>
+        <v>269909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>299963</v>
+        <v>297527</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8516426387525334</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8080321366042554</v>
+        <v>0.8023200332147429</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8916562371924939</v>
+        <v>0.8844142243811567</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>246</v>
@@ -4584,19 +4584,19 @@
         <v>256742</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>244263</v>
+        <v>242897</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>268871</v>
+        <v>268053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8447118556069036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8036565980782219</v>
+        <v>0.7991600964986817</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8846195537323612</v>
+        <v>0.8819280903730163</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>529</v>
@@ -4605,19 +4605,19 @@
         <v>543245</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>524084</v>
+        <v>523409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>561409</v>
+        <v>560961</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8483529710494625</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8184309702598664</v>
+        <v>0.8173762922582237</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8767200335252624</v>
+        <v>0.8760197913002112</v>
       </c>
     </row>
     <row r="27">
@@ -4709,19 +4709,19 @@
         <v>80357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64898</v>
+        <v>61612</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101978</v>
+        <v>98556</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06551884273136085</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05291398600658467</v>
+        <v>0.05023520865969034</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08314767274659181</v>
+        <v>0.08035732838446691</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>73</v>
@@ -4730,19 +4730,19 @@
         <v>78530</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>60899</v>
+        <v>62718</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97282</v>
+        <v>95829</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07462396305842318</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05786953161475257</v>
+        <v>0.05959807051444795</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09244330158874044</v>
+        <v>0.09106208879368921</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>148</v>
@@ -4751,19 +4751,19 @@
         <v>158887</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>136528</v>
+        <v>134824</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>190099</v>
+        <v>183714</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06972353022682017</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0599117112771676</v>
+        <v>0.05916403336359499</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08341999248367915</v>
+        <v>0.08061840884123092</v>
       </c>
     </row>
     <row r="29">
@@ -4780,19 +4780,19 @@
         <v>6086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2899</v>
+        <v>2079</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11515</v>
+        <v>13170</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004962538580359825</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002363995064791723</v>
+        <v>0.001695122846649928</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009388404642668871</v>
+        <v>0.01073829887625942</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -4801,19 +4801,19 @@
         <v>6435</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2135</v>
+        <v>2262</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13117</v>
+        <v>13420</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006114778346925754</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002028679379643213</v>
+        <v>0.002149467370627529</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01246480233379095</v>
+        <v>0.0127524252756719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -4822,19 +4822,19 @@
         <v>12521</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6958</v>
+        <v>6519</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21170</v>
+        <v>20704</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005494635682234573</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003053485391927069</v>
+        <v>0.002860663638163225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009289773011091238</v>
+        <v>0.009085407642575366</v>
       </c>
     </row>
     <row r="30">
@@ -4851,19 +4851,19 @@
         <v>6514</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2707</v>
+        <v>2768</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12039</v>
+        <v>12878</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00531156100883426</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002206959507577874</v>
+        <v>0.002257247738734132</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.009815606715071376</v>
+        <v>0.01049995915500675</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -4872,19 +4872,19 @@
         <v>5768</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2279</v>
+        <v>2165</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12936</v>
+        <v>12975</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005480823211963743</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002166080119009281</v>
+        <v>0.0020569756656517</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01229242571301678</v>
+        <v>0.01232933620980506</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -4893,19 +4893,19 @@
         <v>12282</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6392</v>
+        <v>6678</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21037</v>
+        <v>20842</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005389725233291253</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002805064595597091</v>
+        <v>0.002930262753035009</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00923161742515782</v>
+        <v>0.009146008135811253</v>
       </c>
     </row>
     <row r="31">
@@ -4922,19 +4922,19 @@
         <v>14897</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8048</v>
+        <v>7478</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27029</v>
+        <v>26676</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01214593269689875</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006562201081806583</v>
+        <v>0.006096958767423942</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02203811504310921</v>
+        <v>0.02175013808866134</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -4943,19 +4943,19 @@
         <v>7072</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3047</v>
+        <v>2970</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14202</v>
+        <v>13692</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006720228265837775</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002895750168425755</v>
+        <v>0.002821865877333055</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01349541315744279</v>
+        <v>0.01301052988888111</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -4964,19 +4964,19 @@
         <v>21969</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13614</v>
+        <v>13437</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>34014</v>
+        <v>35215</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009640376399357675</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005974228803527918</v>
+        <v>0.005896655939535637</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01492638199066482</v>
+        <v>0.01545316967601476</v>
       </c>
     </row>
     <row r="32">
@@ -4993,19 +4993,19 @@
         <v>1118618</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1096109</v>
+        <v>1095885</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1138239</v>
+        <v>1137873</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9120611249825463</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.893708119603464</v>
+        <v>0.8935253465813056</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9280589205333239</v>
+        <v>0.9277600359724718</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>884</v>
@@ -5014,19 +5014,19 @@
         <v>954538</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>934786</v>
+        <v>933661</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>974824</v>
+        <v>972901</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9070602071168495</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8882904087192327</v>
+        <v>0.887221625131665</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9263364589341812</v>
+        <v>0.9245092298648576</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1944</v>
@@ -5035,19 +5035,19 @@
         <v>2073156</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2042317</v>
+        <v>2045050</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2099850</v>
+        <v>2099836</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9097517324582963</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8962189898723224</v>
+        <v>0.8974181633475883</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9214656095221627</v>
+        <v>0.9214594224951131</v>
       </c>
     </row>
     <row r="33">
@@ -5379,19 +5379,19 @@
         <v>3135</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9008</v>
+        <v>9255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02652385990919427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00681874811432011</v>
+        <v>0.006600079636094886</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0762155492068982</v>
+        <v>0.07830356631063243</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5400,19 +5400,19 @@
         <v>6834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2934</v>
+        <v>3019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13136</v>
+        <v>14365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07175650634023802</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03080347377918553</v>
+        <v>0.03169977980634186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1379213474541953</v>
+        <v>0.1508209916122695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5421,19 +5421,19 @@
         <v>9969</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4991</v>
+        <v>4865</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17218</v>
+        <v>18254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0467086327930574</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02338546754208551</v>
+        <v>0.0227954007219499</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0806709714280667</v>
+        <v>0.08552570176280298</v>
       </c>
     </row>
     <row r="5">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4824</v>
+        <v>4498</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008001810195198177</v>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04081650972391954</v>
+        <v>0.03805557745373098</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5221</v>
+        <v>6143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004431054685765812</v>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02446325436357355</v>
+        <v>0.02878370234333069</v>
       </c>
     </row>
     <row r="7">
@@ -5607,19 +5607,19 @@
         <v>114109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108364</v>
+        <v>108033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117242</v>
+        <v>117238</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9654743298956076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9168647087896784</v>
+        <v>0.9140605763523961</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9919749998340932</v>
+        <v>0.9919426398763677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -5628,19 +5628,19 @@
         <v>88409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82107</v>
+        <v>80878</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92309</v>
+        <v>92224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.928243493659762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8620786525458051</v>
+        <v>0.8491790083877305</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9691965262208144</v>
+        <v>0.9683002201936581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>200</v>
@@ -5649,19 +5649,19 @@
         <v>202518</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>195105</v>
+        <v>194383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207824</v>
+        <v>207842</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9488603125211768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9141259870371911</v>
+        <v>0.9107451367301634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9737215494633797</v>
+        <v>0.9738052437766093</v>
       </c>
     </row>
     <row r="9">
@@ -5753,19 +5753,19 @@
         <v>4015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9927</v>
+        <v>9979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01595473744857891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004018498585082025</v>
+        <v>0.00402720779673282</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0394495333054462</v>
+        <v>0.03965865187256795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5774,19 +5774,19 @@
         <v>5819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1982</v>
+        <v>2042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11846</v>
+        <v>11784</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02696022420689012</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00918431490503795</v>
+        <v>0.009463344044980537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05488934901613954</v>
+        <v>0.05460097424808812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5795,19 +5795,19 @@
         <v>9833</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4875</v>
+        <v>4910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17204</v>
+        <v>18084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02103595918743942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01042771058278054</v>
+        <v>0.01050311599839507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03680356958148924</v>
+        <v>0.03868619702460178</v>
       </c>
     </row>
     <row r="11">
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7108</v>
+        <v>7240</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00966193031179499</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03293410074161609</v>
+        <v>0.03354545101726001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7264</v>
+        <v>7300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00446090313111981</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01553859328421407</v>
+        <v>0.01561534938323426</v>
       </c>
     </row>
     <row r="12">
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7957</v>
+        <v>7815</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008546772709759337</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03162086713231894</v>
+        <v>0.03105835550541431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7254</v>
+        <v>6762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004600736678492241</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01551846649536768</v>
+        <v>0.01446543921772676</v>
       </c>
     </row>
     <row r="13">
@@ -5950,19 +5950,19 @@
         <v>3436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10005</v>
+        <v>9284</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01365568802233696</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00392060532248587</v>
+        <v>0.003912383993626902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03976211473135571</v>
+        <v>0.0368966383310327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6523</v>
+        <v>6479</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008399312286064841</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03022499584257549</v>
+        <v>0.03001798124308932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -5992,19 +5992,19 @@
         <v>5249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1910</v>
+        <v>1812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11548</v>
+        <v>11206</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01122882483624529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004086872222886535</v>
+        <v>0.003875652457918875</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02470415096806491</v>
+        <v>0.0239722659316653</v>
       </c>
     </row>
     <row r="14">
@@ -6021,19 +6021,19 @@
         <v>242031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234434</v>
+        <v>233386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>246696</v>
+        <v>246531</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9618428018193248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9316517748995981</v>
+        <v>0.92748601569057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9803798207157479</v>
+        <v>0.9797234319256247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>203</v>
@@ -6042,19 +6042,19 @@
         <v>206108</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198696</v>
+        <v>199358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211075</v>
+        <v>211005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9549785331952501</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9206362588061767</v>
+        <v>0.9237006275390443</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9779907933347098</v>
+        <v>0.9776686452358337</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>424</v>
@@ -6063,19 +6063,19 @@
         <v>448140</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>438023</v>
+        <v>437662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>455475</v>
+        <v>455420</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9586735761667032</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9370312254649382</v>
+        <v>0.9362586776935955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.97436499190874</v>
+        <v>0.9742479203355294</v>
       </c>
     </row>
     <row r="15">
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6659</v>
+        <v>5952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006469134286030238</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02263887877770284</v>
+        <v>0.02023678720237659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7923</v>
+        <v>6957</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007540863354506434</v>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03014869931436732</v>
+        <v>0.02647313162687369</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6209,19 +6209,19 @@
         <v>3884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>956</v>
+        <v>988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8728</v>
+        <v>8869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006974835698084162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001715749731705281</v>
+        <v>0.001773369563090235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01567129393258895</v>
+        <v>0.01592565388428235</v>
       </c>
     </row>
     <row r="17">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7810</v>
+        <v>6843</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007641880273714655</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02655112545499411</v>
+        <v>0.0232630915771163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8992</v>
+        <v>8391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004036015919714102</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01614585237161347</v>
+        <v>0.01506709332519113</v>
       </c>
     </row>
     <row r="18">
@@ -6304,16 +6304,16 @@
         <v>1031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10318</v>
+        <v>10200</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01398159761904005</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003503819098050515</v>
+        <v>0.003504643948052436</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03507813650437774</v>
+        <v>0.03467702102444465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -6335,19 +6335,19 @@
         <v>4113</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9381</v>
+        <v>10698</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.00738430184094631</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001847566954216315</v>
+        <v>0.001852755029241962</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01684430733803405</v>
+        <v>0.0192097905686728</v>
       </c>
     </row>
     <row r="19">
@@ -6364,19 +6364,19 @@
         <v>9380</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4129</v>
+        <v>4478</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18864</v>
+        <v>17888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03189007287705566</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01403751222036261</v>
+        <v>0.01522253187038143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06413299884551614</v>
+        <v>0.06081570368937746</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -6385,19 +6385,19 @@
         <v>11702</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5438</v>
+        <v>6079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20602</v>
+        <v>20385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04452869252684334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02069239776392577</v>
+        <v>0.02313426163388192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07839565228940738</v>
+        <v>0.07757281466414845</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6406,19 +6406,19 @@
         <v>21082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12805</v>
+        <v>12249</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32004</v>
+        <v>31161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03785367691776483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02299150499093467</v>
+        <v>0.02199306783053027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05746471808775609</v>
+        <v>0.05595118624494791</v>
       </c>
     </row>
     <row r="20">
@@ -6435,19 +6435,19 @@
         <v>276495</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265944</v>
+        <v>266591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284569</v>
+        <v>283615</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9400173149441594</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9041470997578417</v>
+        <v>0.9063459257481714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9674693051732111</v>
+        <v>0.9642226747560919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -6456,19 +6456,19 @@
         <v>249106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239972</v>
+        <v>240219</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>255992</v>
+        <v>254841</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9479304441186502</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9131741141623276</v>
+        <v>0.9141140809097126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9741339673231252</v>
+        <v>0.9697543458833211</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>487</v>
@@ -6477,19 +6477,19 @@
         <v>525601</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513426</v>
+        <v>513785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>535020</v>
+        <v>535668</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9437511696234906</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9218913537669475</v>
+        <v>0.9225361154398246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9606637328914756</v>
+        <v>0.9618283547340079</v>
       </c>
     </row>
     <row r="21">
@@ -6581,19 +6581,19 @@
         <v>5650</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1883</v>
+        <v>2655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12049</v>
+        <v>12300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02255331127588522</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007514595333902291</v>
+        <v>0.01059828339533849</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0480955652906575</v>
+        <v>0.04909661104295798</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -6602,19 +6602,19 @@
         <v>5161</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1922</v>
+        <v>1974</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10927</v>
+        <v>11469</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.024122091528713</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008984486409861738</v>
+        <v>0.009227929562688919</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05107476478860597</v>
+        <v>0.05360909102786498</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -6623,19 +6623,19 @@
         <v>10811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5799</v>
+        <v>5711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18269</v>
+        <v>18276</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02327590263455653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01248434725522683</v>
+        <v>0.01229583715553061</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03933382937764182</v>
+        <v>0.03934746902340767</v>
       </c>
     </row>
     <row r="23">
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5261</v>
+        <v>5711</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004212595225296225</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02100141792137784</v>
+        <v>0.0227945192436357</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5342</v>
+        <v>6029</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004919995747209147</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.024970450270652</v>
+        <v>0.02818311161871838</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7359</v>
+        <v>7290</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00453842894441174</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01584410468863727</v>
+        <v>0.01569482774851466</v>
       </c>
     </row>
     <row r="24">
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5315</v>
+        <v>5266</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004212595225296225</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02121457955361908</v>
+        <v>0.0210177559138944</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4278</v>
+        <v>5708</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002272243858753849</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00920976956454473</v>
+        <v>0.01228866718652208</v>
       </c>
     </row>
     <row r="25">
@@ -6786,19 +6786,19 @@
         <v>2914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8004</v>
+        <v>8022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01163009426841174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003584589716178803</v>
+        <v>0.003556986710358836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03194984290685302</v>
+        <v>0.03202009498718933</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -6820,19 +6820,19 @@
         <v>2914</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7595</v>
+        <v>8301</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006273190008724048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001930741848410936</v>
+        <v>0.001921373249787629</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01635188160626552</v>
+        <v>0.01787304777842028</v>
       </c>
     </row>
     <row r="26">
@@ -6849,19 +6849,19 @@
         <v>239854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>231808</v>
+        <v>233111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>244823</v>
+        <v>245033</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9573914040051106</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9252759109642459</v>
+        <v>0.9304736783037859</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9772234700415952</v>
+        <v>0.9780614582004449</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>198</v>
@@ -6870,19 +6870,19 @@
         <v>207723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>201398</v>
+        <v>201279</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>211715</v>
+        <v>211804</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9709579127240778</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9413946165694357</v>
+        <v>0.9408366420932186</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9896165443973288</v>
+        <v>0.9900322940042121</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>435</v>
@@ -6891,19 +6891,19 @@
         <v>447577</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>437745</v>
+        <v>438291</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>454022</v>
+        <v>454621</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9636402345535539</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9424718727647302</v>
+        <v>0.9436468187661607</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9775161799906172</v>
+        <v>0.9788060741161941</v>
       </c>
     </row>
     <row r="27">
@@ -6995,19 +6995,19 @@
         <v>14703</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8581</v>
+        <v>8371</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23355</v>
+        <v>24616</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01607745483341459</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009382941421316571</v>
+        <v>0.009154262665777546</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02553920665527512</v>
+        <v>0.0269181008553952</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -7016,19 +7016,19 @@
         <v>19795</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12571</v>
+        <v>12712</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30239</v>
+        <v>31842</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02512745956752934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01595727952073083</v>
+        <v>0.01613630317624098</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03838400426542597</v>
+        <v>0.04041913087447328</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>35</v>
@@ -7037,19 +7037,19 @@
         <v>34498</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24405</v>
+        <v>24919</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>46369</v>
+        <v>48395</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02026567164058536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01433662397550021</v>
+        <v>0.0146387646450596</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02723923868663581</v>
+        <v>0.02842940445642232</v>
       </c>
     </row>
     <row r="29">
@@ -7066,19 +7066,19 @@
         <v>3303</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9859</v>
+        <v>8958</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003612006750138513</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001148523975633267</v>
+        <v>0.001146011988096151</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01078050294770548</v>
+        <v>0.009795742289538271</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -7087,19 +7087,19 @@
         <v>3138</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8261</v>
+        <v>8410</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003983087227987888</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001267708181285051</v>
+        <v>0.001267022928671072</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01048592207063676</v>
+        <v>0.01067490149586961</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -7108,19 +7108,19 @@
         <v>6441</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2247</v>
+        <v>2205</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12919</v>
+        <v>14040</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003783737654132757</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001319883577649349</v>
+        <v>0.00129512676690558</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.007589511673920054</v>
+        <v>0.008247896192809427</v>
       </c>
     </row>
     <row r="30">
@@ -7137,19 +7137,19 @@
         <v>8264</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4063</v>
+        <v>4070</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15429</v>
+        <v>16535</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009037036164799003</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004442568338353579</v>
+        <v>0.004450746026209327</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01687117885905221</v>
+        <v>0.01808086919783664</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -7171,19 +7171,19 @@
         <v>8264</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4034</v>
+        <v>4061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15439</v>
+        <v>15661</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004854821031833822</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002369896337188996</v>
+        <v>0.002385747918279465</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.009069475045596215</v>
+        <v>0.009200206275182875</v>
       </c>
     </row>
     <row r="31">
@@ -7200,19 +7200,19 @@
         <v>15730</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8800</v>
+        <v>8465</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25988</v>
+        <v>25622</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0172008199952493</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009622895990424698</v>
+        <v>0.009256219572602125</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02841748010766924</v>
+        <v>0.02801780941593636</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -7221,19 +7221,19 @@
         <v>13514</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7379</v>
+        <v>7362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22879</v>
+        <v>21434</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01715480856874932</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009366168106409981</v>
+        <v>0.009344708544005632</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02904175137508802</v>
+        <v>0.02720793947329427</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -7242,19 +7242,19 @@
         <v>29244</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20450</v>
+        <v>20278</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41793</v>
+        <v>43885</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01717952654453289</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01201331062896515</v>
+        <v>0.01191233471286872</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02455104679050973</v>
+        <v>0.02577999827261414</v>
       </c>
     </row>
     <row r="32">
@@ -7271,19 +7271,19 @@
         <v>872490</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>858413</v>
+        <v>857498</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>883643</v>
+        <v>883776</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9540726822563986</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9386794844742131</v>
+        <v>0.9376790707506902</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9662682549637729</v>
+        <v>0.9664142737352484</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>735</v>
@@ -7292,19 +7292,19 @@
         <v>751345</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>738182</v>
+        <v>738571</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>761700</v>
+        <v>762707</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9537346446357334</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9370259517213528</v>
+        <v>0.9375187956211957</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9668779280474794</v>
+        <v>0.9681561589165276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1546</v>
@@ -7313,19 +7313,19 @@
         <v>1623834</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1604581</v>
+        <v>1603583</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1638593</v>
+        <v>1639275</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9539162431289152</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9426060121706534</v>
+        <v>0.9420193060005052</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9625861022457696</v>
+        <v>0.9629864625735507</v>
       </c>
     </row>
     <row r="33">
